--- a/Mapping/grade_mapping.xlsx
+++ b/Mapping/grade_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F900975-0327-4241-B59B-DFB4D29E314D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA7010-6072-4062-A2E3-DC9668E62646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEB82F00-EEEC-4A57-A735-D7D1752D4195}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>5.BB</t>
   </si>
@@ -179,6 +179,9 @@
   <si>
     <t>Grade_adjust</t>
   </si>
+  <si>
+    <t>4.ฺฺBBB</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,6 +253,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD24D63C-6705-4F22-9D21-B70907AA2967}">
   <dimension ref="A1:B5122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -968,7 +977,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -976,7 +985,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -984,7 +993,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -992,7 +1001,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1000,7 +1009,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1008,7 +1017,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1016,7 +1025,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1024,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1032,7 +1041,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1040,7 +1049,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1048,7 +1057,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1056,7 +1065,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1064,7 +1073,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1072,7 +1081,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1080,7 +1089,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1088,7 +1097,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1096,7 +1105,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1104,7 +1113,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1112,7 +1121,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1120,7 +1129,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1128,7 +1137,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1136,7 +1145,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1144,7 +1153,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1152,7 +1161,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1160,7 +1169,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1168,7 +1177,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1176,7 +1185,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1184,7 +1193,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1192,7 +1201,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1200,7 +1209,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1208,7 +1217,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1216,7 +1225,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1224,7 +1233,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1232,7 +1241,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1240,7 +1249,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -1248,7 +1257,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -1256,7 +1265,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -1264,7 +1273,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -1272,7 +1281,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -1280,7 +1289,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -1288,7 +1297,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -1296,7 +1305,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -1304,7 +1313,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -1312,7 +1321,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -1320,7 +1329,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -1328,10 +1337,11 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" t="str">
-        <f>IFERROR(VLOOKUP(A47,[1]Sheet2!A:B,2,0),"")</f>
-        <v/>
+      <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
